--- a/【存储稳定性测试与数据一致性校验】测试用例.xlsx
+++ b/【存储稳定性测试与数据一致性校验】测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11520" tabRatio="460"/>
+    <workbookView windowWidth="27660" windowHeight="13160" tabRatio="460"/>
   </bookViews>
   <sheets>
     <sheet name="LBA工具测试用例" sheetId="6" r:id="rId1"/>
@@ -6933,6 +6933,9 @@
     <t>hd_write_verify_dump -c -D -L 0x1000 -P robin -I /dev/sdX -I /dev/sdY</t>
   </si>
   <si>
+    <t>cluster-split策略测试硬盘</t>
+  </si>
+  <si>
     <t>hd_write_verify.with.stripe.split.64K.整体校验+批量校验.x86_64.V10.iso</t>
   </si>
   <si>
@@ -6984,6 +6987,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">hd_write_verify -c -D -K </t>
     </r>
     <r>
@@ -7228,9 +7238,6 @@
       </rPr>
       <t xml:space="preserve"> lba.raw</t>
     </r>
-  </si>
-  <si>
-    <t>cluster-split策略测试硬盘</t>
   </si>
   <si>
     <t>hd_write_verify.with.stripe.robin.1K.整体校验+批量校验.aarch64.V10.iso</t>
@@ -7833,14 +7840,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF3232F0"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7854,7 +7854,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF3232F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8069,7 +8076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -8657,6 +8664,19 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -8800,32 +8820,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -8834,7 +8828,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -9001,7 +9021,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9013,34 +9033,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9125,7 +9145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9348,166 +9368,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9790,6 +9822,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9957,7 +9996,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:rowOff>135890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10239,8 +10278,8 @@
   <sheetPr/>
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K102" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108:Q108"/>
+    <sheetView tabSelected="1" topLeftCell="G110" workbookViewId="0">
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -10319,7 +10358,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="70"/>
       <c r="P2" s="70"/>
-      <c r="Q2" s="76"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" ht="18.5" spans="1:17">
       <c r="A3" s="7" t="s">
@@ -10353,7 +10392,7 @@
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="71"/>
-      <c r="Q3" s="77"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" ht="17.75" spans="1:17">
       <c r="A4" s="7"/>
@@ -10377,7 +10416,7 @@
       </c>
       <c r="L4" s="40"/>
       <c r="M4" s="71"/>
-      <c r="Q4" s="77"/>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" ht="17.75" spans="1:17">
       <c r="A5" s="7"/>
@@ -10405,7 +10444,7 @@
       </c>
       <c r="L5" s="40"/>
       <c r="M5" s="71"/>
-      <c r="Q5" s="77"/>
+      <c r="Q5" s="80"/>
     </row>
     <row r="6" ht="17.75" spans="1:17">
       <c r="A6" s="7"/>
@@ -10433,7 +10472,7 @@
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="71"/>
-      <c r="Q6" s="77"/>
+      <c r="Q6" s="80"/>
     </row>
     <row r="7" ht="17.75" spans="1:17">
       <c r="A7" s="7"/>
@@ -10461,7 +10500,7 @@
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="71"/>
-      <c r="Q7" s="77"/>
+      <c r="Q7" s="80"/>
     </row>
     <row r="8" ht="17.75" spans="1:17">
       <c r="A8" s="7"/>
@@ -10489,7 +10528,7 @@
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="71"/>
-      <c r="Q8" s="77"/>
+      <c r="Q8" s="80"/>
     </row>
     <row r="9" ht="17.75" spans="1:17">
       <c r="A9" s="7"/>
@@ -10517,7 +10556,7 @@
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="71"/>
-      <c r="Q9" s="77"/>
+      <c r="Q9" s="80"/>
     </row>
     <row r="10" ht="17.75" spans="1:17">
       <c r="A10" s="7"/>
@@ -10545,7 +10584,7 @@
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="71"/>
-      <c r="Q10" s="77"/>
+      <c r="Q10" s="80"/>
     </row>
     <row r="11" ht="17.75" spans="1:17">
       <c r="A11" s="7"/>
@@ -10573,7 +10612,7 @@
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="71"/>
-      <c r="Q11" s="77"/>
+      <c r="Q11" s="80"/>
     </row>
     <row r="12" ht="17.75" spans="1:17">
       <c r="A12" s="7"/>
@@ -10603,7 +10642,7 @@
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="71"/>
-      <c r="Q12" s="77"/>
+      <c r="Q12" s="80"/>
     </row>
     <row r="13" ht="17.75" spans="1:17">
       <c r="A13" s="7"/>
@@ -10627,7 +10666,7 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="71"/>
-      <c r="Q13" s="77"/>
+      <c r="Q13" s="80"/>
     </row>
     <row r="14" ht="17.75" spans="1:17">
       <c r="A14" s="7"/>
@@ -10651,7 +10690,7 @@
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="71"/>
-      <c r="Q14" s="77"/>
+      <c r="Q14" s="80"/>
     </row>
     <row r="15" ht="17.75" spans="1:17">
       <c r="A15" s="7"/>
@@ -10679,7 +10718,7 @@
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="71"/>
-      <c r="Q15" s="77"/>
+      <c r="Q15" s="80"/>
     </row>
     <row r="16" ht="17.75" spans="1:17">
       <c r="A16" s="7"/>
@@ -10703,7 +10742,7 @@
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="71"/>
-      <c r="Q16" s="77"/>
+      <c r="Q16" s="80"/>
     </row>
     <row r="17" ht="17.75" spans="1:17">
       <c r="A17" s="7"/>
@@ -10731,7 +10770,7 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="71"/>
-      <c r="Q17" s="77"/>
+      <c r="Q17" s="80"/>
     </row>
     <row r="18" ht="17.75" spans="1:17">
       <c r="A18" s="7"/>
@@ -10755,7 +10794,7 @@
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="71"/>
-      <c r="Q18" s="77"/>
+      <c r="Q18" s="80"/>
     </row>
     <row r="19" ht="17.75" spans="1:17">
       <c r="A19" s="7"/>
@@ -10779,7 +10818,7 @@
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="71"/>
-      <c r="Q19" s="77"/>
+      <c r="Q19" s="80"/>
     </row>
     <row r="20" ht="17.75" spans="1:17">
       <c r="A20" s="7"/>
@@ -10807,7 +10846,7 @@
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="71"/>
-      <c r="Q20" s="77"/>
+      <c r="Q20" s="80"/>
     </row>
     <row r="21" ht="17.75" spans="1:17">
       <c r="A21" s="7"/>
@@ -10839,7 +10878,7 @@
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="71"/>
-      <c r="Q21" s="77"/>
+      <c r="Q21" s="80"/>
     </row>
     <row r="22" ht="17.75" spans="1:17">
       <c r="A22" s="7"/>
@@ -10867,7 +10906,7 @@
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="71"/>
-      <c r="Q22" s="77"/>
+      <c r="Q22" s="80"/>
     </row>
     <row r="23" ht="17.75" spans="1:17">
       <c r="A23" s="7"/>
@@ -10895,7 +10934,7 @@
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="71"/>
-      <c r="Q23" s="77"/>
+      <c r="Q23" s="80"/>
     </row>
     <row r="24" ht="17.75" spans="1:17">
       <c r="A24" s="7"/>
@@ -10919,7 +10958,7 @@
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="71"/>
-      <c r="Q24" s="77"/>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" ht="17.75" spans="1:17">
       <c r="A25" s="7"/>
@@ -10943,7 +10982,7 @@
       </c>
       <c r="L25" s="40"/>
       <c r="M25" s="71"/>
-      <c r="Q25" s="77"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" ht="19.1" spans="1:17">
       <c r="A26" s="7"/>
@@ -10972,7 +11011,7 @@
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
-      <c r="Q26" s="78"/>
+      <c r="Q26" s="81"/>
     </row>
     <row r="27" ht="18.5" spans="1:17">
       <c r="A27" s="7"/>
@@ -10998,14 +11037,14 @@
       <c r="M27" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="O27" s="74" t="s">
+      <c r="O27" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="79"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="82"/>
     </row>
     <row r="28" ht="17.75" spans="1:17">
       <c r="A28" s="7"/>
@@ -11029,12 +11068,12 @@
       </c>
       <c r="L28" s="40"/>
       <c r="M28" s="24"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75" t="s">
+      <c r="N28" s="76"/>
+      <c r="O28" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="79"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="82"/>
     </row>
     <row r="29" ht="17.75" spans="1:17">
       <c r="A29" s="7"/>
@@ -11058,12 +11097,12 @@
       </c>
       <c r="L29" s="40"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75" t="s">
+      <c r="N29" s="76"/>
+      <c r="O29" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="79"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="82"/>
     </row>
     <row r="30" ht="18.3" spans="1:17">
       <c r="A30" s="7"/>
@@ -11085,12 +11124,12 @@
       <c r="K30" s="29"/>
       <c r="L30" s="40"/>
       <c r="M30" s="24"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75" t="s">
+      <c r="N30" s="76"/>
+      <c r="O30" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="79"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="82"/>
     </row>
     <row r="31" ht="17.55" spans="1:17">
       <c r="A31" s="7"/>
@@ -11110,12 +11149,12 @@
       <c r="K31" s="30"/>
       <c r="L31" s="40"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75" t="s">
+      <c r="N31" s="76"/>
+      <c r="O31" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="79"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="82"/>
     </row>
     <row r="32" ht="17.55" spans="1:17">
       <c r="A32" s="7"/>
@@ -11141,12 +11180,12 @@
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="24"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75" t="s">
+      <c r="N32" s="76"/>
+      <c r="O32" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="79"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="82"/>
     </row>
     <row r="33" ht="17.55" spans="1:17">
       <c r="A33" s="7"/>
@@ -11172,12 +11211,12 @@
       </c>
       <c r="L33" s="40"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75" t="s">
+      <c r="N33" s="76"/>
+      <c r="O33" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="79"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="82"/>
     </row>
     <row r="34" ht="17.55" spans="1:17">
       <c r="A34" s="7"/>
@@ -11203,12 +11242,12 @@
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="24"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75" t="s">
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="79"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="82"/>
     </row>
     <row r="35" ht="18.3" spans="1:17">
       <c r="A35" s="16" t="s">
@@ -11240,14 +11279,14 @@
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="75" t="s">
+      <c r="N35" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="O35" s="75" t="s">
+      <c r="O35" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="79"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="82"/>
     </row>
     <row r="36" ht="17.55" spans="1:17">
       <c r="A36" s="7"/>
@@ -11273,12 +11312,12 @@
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="24"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75" t="s">
+      <c r="N36" s="76"/>
+      <c r="O36" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="79"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="82"/>
     </row>
     <row r="37" ht="17.55" spans="1:17">
       <c r="A37" s="7"/>
@@ -11304,14 +11343,14 @@
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="24"/>
-      <c r="N37" s="75" t="s">
+      <c r="N37" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="O37" s="75" t="s">
+      <c r="O37" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="79"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="82"/>
     </row>
     <row r="38" ht="17.55" spans="1:17">
       <c r="A38" s="7"/>
@@ -11337,12 +11376,12 @@
       </c>
       <c r="L38" s="40"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75" t="s">
+      <c r="N38" s="76"/>
+      <c r="O38" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="79"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="82"/>
     </row>
     <row r="39" ht="17.55" spans="1:17">
       <c r="A39" s="7"/>
@@ -11370,14 +11409,14 @@
       <c r="M39" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="N39" s="75" t="s">
+      <c r="N39" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="O39" s="75" t="s">
+      <c r="O39" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="79"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="82"/>
     </row>
     <row r="40" ht="17.55" spans="1:17">
       <c r="A40" s="7"/>
@@ -11403,12 +11442,12 @@
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="24"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75" t="s">
+      <c r="N40" s="76"/>
+      <c r="O40" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="79"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="82"/>
     </row>
     <row r="41" ht="17.55" spans="1:17">
       <c r="A41" s="7"/>
@@ -11434,12 +11473,12 @@
       </c>
       <c r="L41" s="40"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75" t="s">
+      <c r="N41" s="76"/>
+      <c r="O41" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="79"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="82"/>
     </row>
     <row r="42" ht="17.55" spans="1:17">
       <c r="A42" s="7"/>
@@ -11465,12 +11504,12 @@
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75" t="s">
+      <c r="N42" s="76"/>
+      <c r="O42" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="79"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="82"/>
     </row>
     <row r="43" ht="17.55" spans="1:17">
       <c r="A43" s="7"/>
@@ -11496,14 +11535,14 @@
       </c>
       <c r="L43" s="40"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="75" t="s">
+      <c r="N43" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="O43" s="75" t="s">
+      <c r="O43" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="79"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="82"/>
     </row>
     <row r="44" ht="17.55" spans="1:17">
       <c r="A44" s="7"/>
@@ -11531,12 +11570,12 @@
       </c>
       <c r="L44" s="40"/>
       <c r="M44" s="24"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75" t="s">
+      <c r="N44" s="76"/>
+      <c r="O44" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="79"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="82"/>
     </row>
     <row r="45" ht="17.55" spans="1:17">
       <c r="A45" s="7"/>
@@ -11562,12 +11601,12 @@
       </c>
       <c r="L45" s="40"/>
       <c r="M45" s="24"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75" t="s">
+      <c r="N45" s="76"/>
+      <c r="O45" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="79"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="82"/>
     </row>
     <row r="46" ht="17.55" spans="1:17">
       <c r="A46" s="7"/>
@@ -11593,12 +11632,12 @@
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="24"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75" t="s">
+      <c r="N46" s="76"/>
+      <c r="O46" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="79"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="82"/>
     </row>
     <row r="47" ht="17.55" spans="1:17">
       <c r="A47" s="7"/>
@@ -11624,12 +11663,12 @@
       </c>
       <c r="L47" s="40"/>
       <c r="M47" s="24"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75" t="s">
+      <c r="N47" s="76"/>
+      <c r="O47" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="79"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="82"/>
     </row>
     <row r="48" ht="17.55" spans="1:17">
       <c r="A48" s="7"/>
@@ -11655,14 +11694,14 @@
       </c>
       <c r="L48" s="40"/>
       <c r="M48" s="24"/>
-      <c r="N48" s="75" t="s">
+      <c r="N48" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="O48" s="75" t="s">
+      <c r="O48" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="79"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="82"/>
     </row>
     <row r="49" ht="17.55" spans="1:17">
       <c r="A49" s="7"/>
@@ -11688,12 +11727,12 @@
       </c>
       <c r="L49" s="40"/>
       <c r="M49" s="24"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75" t="s">
+      <c r="N49" s="76"/>
+      <c r="O49" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="79"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="82"/>
     </row>
     <row r="50" ht="17.55" spans="1:17">
       <c r="A50" s="7"/>
@@ -11719,12 +11758,12 @@
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="24"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75" t="s">
+      <c r="N50" s="76"/>
+      <c r="O50" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="79"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="82"/>
     </row>
     <row r="51" ht="17.55" spans="1:17">
       <c r="A51" s="7"/>
@@ -11750,12 +11789,12 @@
       </c>
       <c r="L51" s="40"/>
       <c r="M51" s="24"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75" t="s">
+      <c r="N51" s="76"/>
+      <c r="O51" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="79"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="82"/>
     </row>
     <row r="52" ht="17.55" spans="1:17">
       <c r="A52" s="7"/>
@@ -11781,14 +11820,14 @@
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="24"/>
-      <c r="N52" t="s">
+      <c r="N52" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="O52" s="75" t="s">
+      <c r="O52" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="79"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="82"/>
     </row>
     <row r="53" ht="17.55" spans="1:17">
       <c r="A53" s="7"/>
@@ -11818,14 +11857,14 @@
       </c>
       <c r="L53" s="40"/>
       <c r="M53" s="24"/>
-      <c r="N53" s="75" t="s">
+      <c r="N53" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="O53" s="75" t="s">
+      <c r="O53" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="79"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="82"/>
     </row>
     <row r="54" ht="17.55" spans="1:17">
       <c r="A54" s="7"/>
@@ -11851,12 +11890,12 @@
       </c>
       <c r="L54" s="40"/>
       <c r="M54" s="24"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75" t="s">
+      <c r="N54" s="76"/>
+      <c r="O54" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="79"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="82"/>
     </row>
     <row r="55" ht="17.55" spans="1:17">
       <c r="A55" s="7"/>
@@ -11884,14 +11923,14 @@
       <c r="M55" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="O55" s="75" t="s">
+      <c r="O55" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="79"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="82"/>
     </row>
     <row r="56" ht="17.55" spans="1:17">
       <c r="A56" s="7"/>
@@ -11917,14 +11956,14 @@
       </c>
       <c r="L56" s="40"/>
       <c r="M56" s="24"/>
-      <c r="N56" s="75" t="s">
+      <c r="N56" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="O56" s="75" t="s">
+      <c r="O56" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="79"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="82"/>
     </row>
     <row r="57" ht="17.55" spans="1:17">
       <c r="A57" s="7"/>
@@ -11950,12 +11989,12 @@
       </c>
       <c r="L57" s="40"/>
       <c r="M57" s="24"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75" t="s">
+      <c r="N57" s="76"/>
+      <c r="O57" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="79"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="82"/>
     </row>
     <row r="58" ht="17.55" spans="1:17">
       <c r="A58" s="7"/>
@@ -11981,12 +12020,12 @@
       </c>
       <c r="L58" s="40"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75" t="s">
+      <c r="N58" s="76"/>
+      <c r="O58" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="79"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="82"/>
     </row>
     <row r="59" ht="17.55" spans="1:17">
       <c r="A59" s="7"/>
@@ -12012,12 +12051,12 @@
       </c>
       <c r="L59" s="40"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75" t="s">
+      <c r="N59" s="76"/>
+      <c r="O59" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="79"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="82"/>
     </row>
     <row r="60" ht="17.55" spans="1:17">
       <c r="A60" s="7"/>
@@ -12045,14 +12084,14 @@
       <c r="M60" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="N60" s="75" t="s">
+      <c r="N60" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="O60" s="75" t="s">
+      <c r="O60" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="79"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="82"/>
     </row>
     <row r="61" ht="17.55" spans="1:17">
       <c r="A61" s="7"/>
@@ -12078,12 +12117,12 @@
       </c>
       <c r="L61" s="40"/>
       <c r="M61" s="24"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75" t="s">
+      <c r="N61" s="76"/>
+      <c r="O61" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="79"/>
+      <c r="P61" s="77"/>
+      <c r="Q61" s="82"/>
     </row>
     <row r="62" ht="17.55" spans="1:17">
       <c r="A62" s="7"/>
@@ -12111,12 +12150,12 @@
       </c>
       <c r="L62" s="40"/>
       <c r="M62" s="24"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75" t="s">
+      <c r="N62" s="76"/>
+      <c r="O62" s="77" t="s">
         <v>307</v>
       </c>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="79"/>
+      <c r="P62" s="77"/>
+      <c r="Q62" s="82"/>
     </row>
     <row r="63" ht="17.55" spans="1:17">
       <c r="A63" s="7"/>
@@ -12142,12 +12181,12 @@
       </c>
       <c r="L63" s="40"/>
       <c r="M63" s="24"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75" t="s">
+      <c r="N63" s="76"/>
+      <c r="O63" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="79"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="82"/>
     </row>
     <row r="64" ht="17.55" spans="1:17">
       <c r="A64" s="7"/>
@@ -12173,14 +12212,14 @@
       <c r="M64" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="N64" s="75" t="s">
+      <c r="N64" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="O64" s="75" t="s">
+      <c r="O64" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="79"/>
+      <c r="P64" s="77"/>
+      <c r="Q64" s="82"/>
     </row>
     <row r="65" ht="17.55" spans="1:17">
       <c r="A65" s="7"/>
@@ -12206,381 +12245,381 @@
       </c>
       <c r="L65" s="40"/>
       <c r="M65" s="24"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75" t="s">
+      <c r="N65" s="76"/>
+      <c r="O65" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="79"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="82"/>
     </row>
     <row r="66" ht="17.55" spans="1:17">
-      <c r="A66" s="80"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83" t="s">
+      <c r="A66" s="83"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="F66" s="92"/>
+      <c r="F66" s="94"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="100" t="s">
+      <c r="H66" s="95"/>
+      <c r="I66" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="J66" s="101"/>
-      <c r="K66" s="102" t="s">
+      <c r="J66" s="103"/>
+      <c r="K66" s="104" t="s">
         <v>324</v>
       </c>
       <c r="L66" s="40"/>
-      <c r="M66" s="108"/>
-      <c r="N66" s="30"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="112"/>
       <c r="O66" s="30" t="s">
         <v>325</v>
       </c>
       <c r="P66" s="30"/>
-      <c r="Q66" s="119"/>
+      <c r="Q66" s="123"/>
     </row>
     <row r="67" ht="17.55" spans="1:17">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
       <c r="L68" s="40"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
     </row>
     <row r="69" spans="7:17">
       <c r="G69" s="19"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="77"/>
     </row>
     <row r="70" spans="7:17">
       <c r="G70" s="19"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
       <c r="L70" s="40"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
     </row>
     <row r="71" spans="7:17">
       <c r="G71" s="19"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
       <c r="L71" s="40"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
     </row>
     <row r="72" spans="7:17">
       <c r="G72" s="19"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="77"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="75"/>
-      <c r="P72" s="75"/>
-      <c r="Q72" s="75"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
     </row>
     <row r="73" spans="7:17">
       <c r="G73" s="19"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
       <c r="L73" s="40"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="77"/>
     </row>
     <row r="74" spans="7:17">
       <c r="G74" s="19"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="75"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
       <c r="L74" s="40"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="75"/>
+      <c r="M74" s="77"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="77"/>
+      <c r="Q74" s="77"/>
     </row>
     <row r="75" spans="7:17">
       <c r="G75" s="19"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
       <c r="L75" s="40"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="77"/>
     </row>
     <row r="76" spans="7:17">
       <c r="G76" s="19"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="77"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="77"/>
     </row>
     <row r="77" spans="7:17">
       <c r="G77" s="19"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
       <c r="L77" s="40"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="75"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
     </row>
     <row r="78" spans="7:17">
       <c r="G78" s="19"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
       <c r="L78" s="40"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="77"/>
     </row>
     <row r="79" spans="7:17">
       <c r="G79" s="19"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
       <c r="L79" s="40"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
+      <c r="Q79" s="77"/>
     </row>
     <row r="80" spans="7:17">
       <c r="G80" s="19"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
       <c r="L80" s="40"/>
-      <c r="M80" s="75"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="75"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
     </row>
     <row r="81" spans="7:17">
       <c r="G81" s="19"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="75"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="77"/>
       <c r="L81" s="40"/>
-      <c r="M81" s="75"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="75"/>
-      <c r="P81" s="75"/>
-      <c r="Q81" s="75"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="77"/>
     </row>
     <row r="82" spans="7:17">
       <c r="G82" s="19"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
       <c r="L82" s="40"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="77"/>
     </row>
     <row r="83" spans="7:17">
       <c r="G83" s="19"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
       <c r="L83" s="40"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
     </row>
     <row r="84" spans="7:17">
       <c r="G84" s="19"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
       <c r="L84" s="40"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="77"/>
     </row>
     <row r="85" spans="7:17">
       <c r="G85" s="19"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
       <c r="L85" s="40"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
     </row>
     <row r="86" spans="7:17">
       <c r="G86" s="19"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
       <c r="L86" s="40"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
+      <c r="M86" s="77"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
+      <c r="Q86" s="77"/>
     </row>
     <row r="87" spans="7:17">
       <c r="G87" s="19"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
       <c r="L87" s="40"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
     </row>
     <row r="88" spans="7:17">
       <c r="G88" s="19"/>
-      <c r="J88" s="75"/>
-      <c r="K88" s="75"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
       <c r="L88" s="40"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
     </row>
     <row r="89" spans="7:17">
       <c r="G89" s="19"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
       <c r="L89" s="40"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
-      <c r="Q89" s="75"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
     </row>
     <row r="90" spans="7:17">
       <c r="G90" s="19"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
       <c r="L90" s="40"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="75"/>
-      <c r="Q90" s="75"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
     </row>
     <row r="91" spans="7:17">
       <c r="G91" s="19"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
       <c r="L91" s="40"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
-      <c r="Q91" s="75"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
     </row>
     <row r="92" spans="7:17">
       <c r="G92" s="19"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="75"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
       <c r="L92" s="40"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="75"/>
-      <c r="Q92" s="75"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="84"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
       <c r="G93" s="19"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
       <c r="L93" s="40"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
-      <c r="Q93" s="75"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
     </row>
     <row r="94" ht="17.55" spans="1:17">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="87"/>
       <c r="G94" s="19"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
       <c r="L94" s="40"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
-      <c r="Q94" s="75"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
+      <c r="Q94" s="77"/>
     </row>
     <row r="95" ht="22.5" spans="1:17">
       <c r="A95" s="5" t="s">
@@ -12603,7 +12642,7 @@
       </c>
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
-      <c r="K95" s="78"/>
+      <c r="K95" s="81"/>
       <c r="L95" s="40"/>
       <c r="M95" s="69" t="s">
         <v>328</v>
@@ -12611,1223 +12650,1223 @@
       <c r="N95" s="73"/>
       <c r="O95" s="73"/>
       <c r="P95" s="73"/>
-      <c r="Q95" s="78"/>
+      <c r="Q95" s="81"/>
     </row>
     <row r="96" ht="18.3" spans="1:17">
-      <c r="A96" s="80" t="s">
+      <c r="A96" s="83" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C96" s="85" t="s">
+      <c r="C96" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="D96" s="86" t="s">
+      <c r="D96" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="E96" s="90"/>
-      <c r="F96" s="94" t="s">
+      <c r="E96" s="92"/>
+      <c r="F96" s="96" t="s">
         <v>332</v>
       </c>
       <c r="G96" s="19"/>
-      <c r="H96" s="95" t="s">
+      <c r="H96" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="I96" s="103" t="s">
+      <c r="I96" s="105" t="s">
         <v>334</v>
       </c>
-      <c r="J96" s="103" t="s">
+      <c r="J96" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="K96" s="104" t="s">
+      <c r="K96" s="106" t="s">
         <v>336</v>
       </c>
       <c r="L96" s="40"/>
-      <c r="M96" s="109" t="s">
+      <c r="M96" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="N96" s="110" t="s">
+      <c r="N96" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="O96" s="111"/>
-      <c r="P96" s="112" t="s">
+      <c r="O96" s="115"/>
+      <c r="P96" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="Q96" s="120"/>
+      <c r="Q96" s="124"/>
     </row>
     <row r="97" ht="18.3" spans="1:17">
-      <c r="A97" s="87"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="11"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="86" t="s">
+      <c r="C97" s="76"/>
+      <c r="D97" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="90"/>
-      <c r="F97" s="96" t="s">
+      <c r="E97" s="92"/>
+      <c r="F97" s="98" t="s">
         <v>338</v>
       </c>
       <c r="G97" s="19"/>
-      <c r="H97" s="97" t="s">
+      <c r="H97" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="K97" s="77" t="s">
+      <c r="K97" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L97" s="40"/>
-      <c r="M97" s="126" t="s">
+      <c r="M97" s="130" t="s">
         <v>342</v>
       </c>
-      <c r="N97" s="114" t="s">
+      <c r="N97" s="118" t="s">
         <v>343</v>
       </c>
-      <c r="O97" s="115"/>
-      <c r="P97" s="75" t="s">
+      <c r="O97" s="119"/>
+      <c r="P97" s="77" t="s">
         <v>344</v>
       </c>
-      <c r="Q97" s="79"/>
+      <c r="Q97" s="82"/>
     </row>
     <row r="98" ht="18.3" spans="1:17">
-      <c r="A98" s="87"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="11"/>
-      <c r="C98" s="88" t="s">
+      <c r="C98" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="D98" s="86" t="s">
+      <c r="D98" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="E98" s="90"/>
-      <c r="F98" s="96" t="s">
+      <c r="E98" s="92"/>
+      <c r="F98" s="98" t="s">
         <v>347</v>
       </c>
       <c r="G98" s="19"/>
-      <c r="H98" s="97"/>
-      <c r="I98" t="s">
+      <c r="H98" s="99"/>
+      <c r="I98" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="K98" s="77" t="s">
+      <c r="K98" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L98" s="40"/>
-      <c r="M98" s="126" t="s">
+      <c r="M98" s="130" t="s">
         <v>349</v>
       </c>
-      <c r="N98" s="114" t="s">
+      <c r="N98" s="118" t="s">
         <v>350</v>
       </c>
-      <c r="O98" s="115"/>
-      <c r="P98" s="75" t="s">
+      <c r="O98" s="119"/>
+      <c r="P98" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="Q98" s="79"/>
+      <c r="Q98" s="82"/>
     </row>
     <row r="99" ht="18.3" spans="1:17">
-      <c r="A99" s="87"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="11"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="86" t="s">
+      <c r="C99" s="76"/>
+      <c r="D99" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="E99" s="90"/>
-      <c r="F99" s="96" t="s">
+      <c r="E99" s="92"/>
+      <c r="F99" s="98" t="s">
         <v>353</v>
       </c>
       <c r="G99" s="19"/>
-      <c r="H99" s="97"/>
-      <c r="I99" t="s">
+      <c r="H99" s="99"/>
+      <c r="I99" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="K99" s="77" t="s">
+      <c r="K99" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L99" s="40"/>
-      <c r="M99" s="126" t="s">
+      <c r="M99" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="N99" s="114" t="s">
+      <c r="N99" s="118" t="s">
         <v>356</v>
       </c>
-      <c r="O99" s="115"/>
-      <c r="P99" s="75" t="s">
+      <c r="O99" s="119"/>
+      <c r="P99" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="Q99" s="79"/>
+      <c r="Q99" s="82"/>
     </row>
     <row r="100" ht="18.3" spans="1:17">
-      <c r="A100" s="87"/>
+      <c r="A100" s="90"/>
       <c r="B100" s="11"/>
-      <c r="C100" s="88" t="s">
+      <c r="C100" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="D100" s="86" t="s">
+      <c r="D100" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="E100" s="90"/>
-      <c r="F100" s="96" t="s">
+      <c r="E100" s="92"/>
+      <c r="F100" s="98" t="s">
         <v>360</v>
       </c>
       <c r="G100" s="19"/>
-      <c r="H100" s="97"/>
-      <c r="I100" t="s">
+      <c r="H100" s="99"/>
+      <c r="I100" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="K100" s="77" t="s">
+      <c r="K100" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L100" s="40"/>
-      <c r="M100" s="126" t="s">
+      <c r="M100" s="130" t="s">
         <v>362</v>
       </c>
-      <c r="N100" s="114" t="s">
+      <c r="N100" s="118" t="s">
         <v>363</v>
       </c>
-      <c r="O100" s="115"/>
-      <c r="P100" s="75" t="s">
+      <c r="O100" s="119"/>
+      <c r="P100" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="Q100" s="79"/>
+      <c r="Q100" s="82"/>
     </row>
     <row r="101" ht="18.3" spans="1:17">
-      <c r="A101" s="87"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="11"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="86" t="s">
+      <c r="C101" s="76"/>
+      <c r="D101" s="89" t="s">
         <v>365</v>
       </c>
-      <c r="E101" s="90"/>
-      <c r="F101" s="96" t="s">
+      <c r="E101" s="92"/>
+      <c r="F101" s="98" t="s">
         <v>366</v>
       </c>
       <c r="G101" s="19"/>
-      <c r="H101" s="97"/>
-      <c r="I101" t="s">
+      <c r="H101" s="99"/>
+      <c r="I101" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="107" t="s">
         <v>367</v>
       </c>
-      <c r="K101" s="77" t="s">
+      <c r="K101" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L101" s="40"/>
-      <c r="M101" s="126" t="s">
+      <c r="M101" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="N101" s="114" t="s">
+      <c r="N101" s="118" t="s">
         <v>369</v>
       </c>
-      <c r="O101" s="115"/>
-      <c r="P101" s="75" t="s">
+      <c r="O101" s="119"/>
+      <c r="P101" s="77" t="s">
         <v>370</v>
       </c>
-      <c r="Q101" s="79"/>
+      <c r="Q101" s="82"/>
     </row>
     <row r="102" ht="18.3" spans="1:17">
-      <c r="A102" s="87"/>
+      <c r="A102" s="90"/>
       <c r="B102" s="11"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="86" t="s">
+      <c r="C102" s="76"/>
+      <c r="D102" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="E102" s="90"/>
-      <c r="F102" s="96" t="s">
+      <c r="E102" s="92"/>
+      <c r="F102" s="98" t="s">
         <v>372</v>
       </c>
       <c r="G102" s="19"/>
-      <c r="H102" s="97"/>
-      <c r="I102" t="s">
+      <c r="H102" s="99"/>
+      <c r="I102" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="K102" s="77" t="s">
+      <c r="K102" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L102" s="40"/>
-      <c r="M102" s="126" t="s">
+      <c r="M102" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="N102" s="114" t="s">
+      <c r="N102" s="118" t="s">
         <v>375</v>
       </c>
-      <c r="O102" s="115"/>
-      <c r="P102" s="75" t="s">
+      <c r="O102" s="119"/>
+      <c r="P102" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="Q102" s="79"/>
+      <c r="Q102" s="82"/>
     </row>
     <row r="103" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A103" s="87"/>
+      <c r="A103" s="90"/>
       <c r="B103" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C103" s="89" t="s">
+      <c r="C103" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="D103" s="86" t="s">
+      <c r="D103" s="89" t="s">
         <v>379</v>
       </c>
-      <c r="E103" s="90"/>
-      <c r="F103" s="94" t="s">
+      <c r="E103" s="92"/>
+      <c r="F103" s="96" t="s">
         <v>332</v>
       </c>
       <c r="G103" s="19"/>
-      <c r="H103" s="97"/>
-      <c r="I103" t="s">
+      <c r="H103" s="99"/>
+      <c r="I103" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="107" t="s">
         <v>380</v>
       </c>
-      <c r="K103" s="77" t="s">
+      <c r="K103" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L103" s="40"/>
-      <c r="M103" s="126" t="s">
+      <c r="M103" s="130" t="s">
         <v>381</v>
       </c>
-      <c r="N103" s="114" t="s">
+      <c r="N103" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="O103" s="115"/>
-      <c r="P103" s="75" t="s">
+      <c r="O103" s="119"/>
+      <c r="P103" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="Q103" s="79"/>
+      <c r="Q103" s="82"/>
     </row>
     <row r="104" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A104" s="87"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="11"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="86" t="s">
+      <c r="C104" s="76"/>
+      <c r="D104" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="E104" s="90"/>
-      <c r="F104" s="96" t="s">
+      <c r="E104" s="92"/>
+      <c r="F104" s="98" t="s">
         <v>338</v>
       </c>
       <c r="G104" s="19"/>
-      <c r="H104" s="97"/>
-      <c r="I104" t="s">
+      <c r="H104" s="99"/>
+      <c r="I104" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="K104" s="77" t="s">
+      <c r="K104" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L104" s="40"/>
-      <c r="M104" s="126" t="s">
+      <c r="M104" s="130" t="s">
         <v>386</v>
       </c>
-      <c r="N104" s="114" t="s">
+      <c r="N104" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="O104" s="115"/>
-      <c r="P104" s="75" t="s">
+      <c r="O104" s="119"/>
+      <c r="P104" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="Q104" s="79"/>
+      <c r="Q104" s="82"/>
     </row>
     <row r="105" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A105" s="87"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="11"/>
-      <c r="C105" s="89" t="s">
+      <c r="C105" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="D105" s="90" t="s">
+      <c r="D105" s="92" t="s">
         <v>390</v>
       </c>
-      <c r="E105" s="90"/>
-      <c r="F105" s="96" t="s">
+      <c r="E105" s="92"/>
+      <c r="F105" s="98" t="s">
         <v>347</v>
       </c>
       <c r="G105" s="19"/>
-      <c r="H105" s="97"/>
-      <c r="I105" t="s">
+      <c r="H105" s="99"/>
+      <c r="I105" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="107" t="s">
         <v>391</v>
       </c>
-      <c r="K105" s="77" t="s">
+      <c r="K105" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L105" s="40"/>
-      <c r="M105" s="126" t="s">
+      <c r="M105" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="N105" s="114" t="s">
+      <c r="N105" s="118" t="s">
         <v>393</v>
       </c>
-      <c r="O105" s="115"/>
-      <c r="P105" s="75" t="s">
+      <c r="O105" s="119"/>
+      <c r="P105" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="Q105" s="79"/>
+      <c r="Q105" s="82"/>
     </row>
     <row r="106" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A106" s="87"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="11"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="90" t="s">
+      <c r="C106" s="76"/>
+      <c r="D106" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="E106" s="90"/>
-      <c r="F106" s="96" t="s">
+      <c r="E106" s="92"/>
+      <c r="F106" s="98" t="s">
         <v>353</v>
       </c>
       <c r="G106" s="19"/>
-      <c r="H106" s="97"/>
-      <c r="I106" t="s">
+      <c r="H106" s="99"/>
+      <c r="I106" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="K106" s="77" t="s">
+      <c r="K106" s="80" t="s">
         <v>170</v>
       </c>
       <c r="L106" s="40"/>
-      <c r="M106" s="126" t="s">
+      <c r="M106" s="130" t="s">
         <v>397</v>
       </c>
-      <c r="N106" s="114" t="s">
+      <c r="N106" s="118" t="s">
         <v>398</v>
       </c>
-      <c r="O106" s="115"/>
-      <c r="P106" s="75" t="s">
+      <c r="O106" s="119"/>
+      <c r="P106" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="Q106" s="79"/>
+      <c r="Q106" s="82"/>
     </row>
     <row r="107" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A107" s="87"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="89" t="s">
+      <c r="C107" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D107" s="90" t="s">
+      <c r="D107" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="E107" s="90"/>
-      <c r="F107" s="96" t="s">
+      <c r="E107" s="92"/>
+      <c r="F107" s="98" t="s">
         <v>360</v>
       </c>
       <c r="G107" s="19"/>
-      <c r="H107" s="97"/>
-      <c r="I107" t="s">
-        <v>340</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="H107" s="99"/>
+      <c r="I107" s="107" t="s">
         <v>402</v>
       </c>
-      <c r="K107" s="77" t="s">
+      <c r="J107" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="K107" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L107" s="40"/>
-      <c r="M107" s="126" t="s">
-        <v>403</v>
-      </c>
-      <c r="N107" s="114" t="s">
+      <c r="M107" s="130" t="s">
         <v>404</v>
       </c>
-      <c r="O107" s="115"/>
-      <c r="P107" s="75" t="s">
+      <c r="N107" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="Q107" s="79"/>
+      <c r="O107" s="119"/>
+      <c r="P107" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q107" s="82"/>
     </row>
     <row r="108" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A108" s="87"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="11"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="E108" s="90"/>
-      <c r="F108" s="96" t="s">
+      <c r="C108" s="91"/>
+      <c r="D108" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108" s="92"/>
+      <c r="F108" s="98" t="s">
         <v>366</v>
       </c>
       <c r="G108" s="19"/>
-      <c r="H108" s="97"/>
-      <c r="I108" t="s">
-        <v>340</v>
-      </c>
-      <c r="J108" t="s">
-        <v>407</v>
-      </c>
-      <c r="K108" s="77" t="s">
+      <c r="H108" s="99"/>
+      <c r="I108" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J108" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="K108" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L108" s="40"/>
-      <c r="M108" s="127" t="s">
-        <v>408</v>
-      </c>
-      <c r="N108" s="117" t="s">
+      <c r="M108" s="131" t="s">
         <v>409</v>
       </c>
-      <c r="O108" s="118"/>
+      <c r="N108" s="121" t="s">
+        <v>410</v>
+      </c>
+      <c r="O108" s="122"/>
       <c r="P108" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q108" s="119"/>
+        <v>411</v>
+      </c>
+      <c r="Q108" s="123"/>
     </row>
     <row r="109" customFormat="1" ht="18.3" spans="1:17">
-      <c r="A109" s="87"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="11"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="90" t="s">
-        <v>411</v>
-      </c>
-      <c r="E109" s="90"/>
-      <c r="F109" s="96" t="s">
+      <c r="C109" s="91"/>
+      <c r="D109" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" s="92"/>
+      <c r="F109" s="98" t="s">
         <v>372</v>
       </c>
       <c r="G109" s="19"/>
-      <c r="H109" s="97"/>
-      <c r="I109" t="s">
-        <v>340</v>
-      </c>
-      <c r="J109" t="s">
-        <v>412</v>
-      </c>
-      <c r="K109" s="77" t="s">
+      <c r="H109" s="99"/>
+      <c r="I109" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J109" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="K109" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L109" s="40"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="75"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
     </row>
     <row r="110" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A110" s="87"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="11"/>
-      <c r="C110" s="89" t="s">
-        <v>413</v>
-      </c>
-      <c r="D110" s="90" t="s">
+      <c r="C110" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="E110" s="90"/>
-      <c r="F110" s="94" t="s">
+      <c r="D110" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="E110" s="92"/>
+      <c r="F110" s="96" t="s">
         <v>332</v>
       </c>
       <c r="G110" s="19"/>
-      <c r="H110" s="97"/>
-      <c r="I110" t="s">
-        <v>340</v>
-      </c>
-      <c r="J110" t="s">
-        <v>415</v>
-      </c>
-      <c r="K110" s="77" t="s">
+      <c r="H110" s="99"/>
+      <c r="I110" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J110" s="107" t="s">
+        <v>416</v>
+      </c>
+      <c r="K110" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L110" s="40"/>
     </row>
     <row r="111" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A111" s="87"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="90" t="s">
-        <v>416</v>
-      </c>
-      <c r="E111" s="90"/>
-      <c r="F111" s="96" t="s">
+      <c r="C111" s="76"/>
+      <c r="D111" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111" s="92"/>
+      <c r="F111" s="98" t="s">
         <v>338</v>
       </c>
       <c r="G111" s="19"/>
-      <c r="H111" s="97"/>
-      <c r="I111" t="s">
-        <v>340</v>
-      </c>
-      <c r="J111" t="s">
-        <v>417</v>
-      </c>
-      <c r="K111" s="77" t="s">
+      <c r="H111" s="99"/>
+      <c r="I111" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J111" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="K111" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L111" s="40"/>
     </row>
     <row r="112" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A112" s="87"/>
+      <c r="A112" s="90"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="90" t="s">
+      <c r="C112" s="91" t="s">
         <v>419</v>
       </c>
-      <c r="E112" s="90"/>
-      <c r="F112" s="96" t="s">
+      <c r="D112" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="E112" s="92"/>
+      <c r="F112" s="98" t="s">
         <v>347</v>
       </c>
       <c r="G112" s="19"/>
-      <c r="H112" s="97"/>
-      <c r="I112" t="s">
-        <v>340</v>
-      </c>
-      <c r="J112" t="s">
-        <v>420</v>
-      </c>
-      <c r="K112" s="77" t="s">
+      <c r="H112" s="99"/>
+      <c r="I112" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J112" s="107" t="s">
+        <v>421</v>
+      </c>
+      <c r="K112" s="80" t="s">
         <v>229</v>
       </c>
       <c r="L112" s="40"/>
     </row>
     <row r="113" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A113" s="87"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="11"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="90" t="s">
-        <v>421</v>
-      </c>
-      <c r="E113" s="90"/>
-      <c r="F113" s="96" t="s">
+      <c r="C113" s="76"/>
+      <c r="D113" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="E113" s="92"/>
+      <c r="F113" s="98" t="s">
         <v>353</v>
       </c>
       <c r="G113" s="19"/>
-      <c r="H113" s="97"/>
-      <c r="I113" t="s">
-        <v>422</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="H113" s="99"/>
+      <c r="I113" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="K113" s="77" t="s">
+      <c r="J113" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="K113" s="80" t="s">
         <v>200</v>
       </c>
       <c r="L113" s="40"/>
     </row>
     <row r="114" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A114" s="87"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="11"/>
-      <c r="C114" s="89" t="s">
-        <v>424</v>
-      </c>
-      <c r="D114" s="90" t="s">
+      <c r="C114" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="E114" s="90"/>
-      <c r="F114" s="96" t="s">
+      <c r="D114" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="E114" s="92"/>
+      <c r="F114" s="98" t="s">
         <v>360</v>
       </c>
       <c r="G114" s="19"/>
-      <c r="H114" s="97"/>
-      <c r="I114" t="s">
-        <v>422</v>
-      </c>
-      <c r="J114" t="s">
-        <v>426</v>
-      </c>
-      <c r="K114" s="77" t="s">
+      <c r="H114" s="99"/>
+      <c r="I114" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="J114" s="107" t="s">
+        <v>427</v>
+      </c>
+      <c r="K114" s="80" t="s">
         <v>260</v>
       </c>
       <c r="L114" s="40"/>
     </row>
     <row r="115" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A115" s="87"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="11"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="90" t="s">
-        <v>427</v>
-      </c>
-      <c r="E115" s="90"/>
-      <c r="F115" s="96" t="s">
+      <c r="C115" s="91"/>
+      <c r="D115" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="E115" s="92"/>
+      <c r="F115" s="98" t="s">
         <v>366</v>
       </c>
       <c r="G115" s="19"/>
-      <c r="H115" s="98" t="s">
-        <v>428</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="H115" s="100" t="s">
         <v>429</v>
       </c>
-      <c r="J115" t="s">
+      <c r="I115" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="K115" s="77" t="s">
+      <c r="J115" s="107" t="s">
         <v>431</v>
+      </c>
+      <c r="K115" s="80" t="s">
+        <v>432</v>
       </c>
       <c r="L115" s="40"/>
     </row>
     <row r="116" customFormat="1" ht="18.3" spans="1:12">
-      <c r="A116" s="87"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="11"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="90" t="s">
-        <v>432</v>
-      </c>
-      <c r="E116" s="90"/>
-      <c r="F116" s="96" t="s">
+      <c r="C116" s="91"/>
+      <c r="D116" s="92" t="s">
+        <v>433</v>
+      </c>
+      <c r="E116" s="92"/>
+      <c r="F116" s="98" t="s">
         <v>372</v>
       </c>
       <c r="G116" s="19"/>
-      <c r="H116" s="99" t="s">
-        <v>433</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="H116" s="101" t="s">
         <v>434</v>
       </c>
-      <c r="J116" t="s">
+      <c r="I116" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="K116" s="77" t="s">
+      <c r="J116" s="107" t="s">
         <v>436</v>
+      </c>
+      <c r="K116" s="80" t="s">
+        <v>437</v>
       </c>
       <c r="L116" s="40"/>
     </row>
     <row r="117" ht="18.3" spans="1:12">
-      <c r="A117" s="87" t="s">
+      <c r="A117" s="90" t="s">
+        <v>438</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C117" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="E117" s="92"/>
+      <c r="F117" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="G117" s="19"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="J117" s="109" t="s">
+        <v>441</v>
+      </c>
+      <c r="K117" s="110" t="s">
         <v>437</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C117" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="D117" s="86" t="s">
-        <v>439</v>
-      </c>
-      <c r="E117" s="90"/>
-      <c r="F117" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="95"/>
-      <c r="I117" s="105" t="s">
-        <v>434</v>
-      </c>
-      <c r="J117" s="106" t="s">
-        <v>440</v>
-      </c>
-      <c r="K117" s="107" t="s">
-        <v>436</v>
       </c>
       <c r="L117" s="40"/>
     </row>
     <row r="118" ht="18.3" spans="1:12">
-      <c r="A118" s="87"/>
+      <c r="A118" s="90"/>
       <c r="B118" s="11"/>
-      <c r="C118" s="88"/>
-      <c r="D118" s="86" t="s">
-        <v>441</v>
-      </c>
-      <c r="E118" s="90"/>
-      <c r="F118" s="96" t="s">
+      <c r="C118" s="76"/>
+      <c r="D118" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="E118" s="92"/>
+      <c r="F118" s="98" t="s">
         <v>338</v>
       </c>
       <c r="G118" s="19"/>
-      <c r="H118" s="97" t="s">
+      <c r="H118" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="I118" t="s">
-        <v>442</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="I118" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J118" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="K118" s="77" t="s">
+      <c r="K118" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L118" s="40"/>
     </row>
-    <row r="119" ht="18.3" spans="1:12">
-      <c r="A119" s="87"/>
+    <row r="119" spans="1:12">
+      <c r="A119" s="90"/>
       <c r="B119" s="11"/>
-      <c r="C119" s="88" t="s">
+      <c r="C119" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="D119" s="86" t="s">
+      <c r="D119" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="E119" s="90"/>
-      <c r="F119" s="96" t="s">
+      <c r="E119" s="92"/>
+      <c r="F119" s="98" t="s">
         <v>347</v>
       </c>
       <c r="G119" s="19"/>
-      <c r="H119" s="97"/>
-      <c r="I119" t="s">
-        <v>442</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="H119" s="99"/>
+      <c r="I119" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J119" s="107" t="s">
         <v>445</v>
       </c>
-      <c r="K119" s="77" t="s">
+      <c r="K119" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L119" s="40"/>
     </row>
-    <row r="120" ht="18.3" spans="1:12">
-      <c r="A120" s="87"/>
+    <row r="120" spans="1:12">
+      <c r="A120" s="90"/>
       <c r="B120" s="11"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="86" t="s">
+      <c r="C120" s="76"/>
+      <c r="D120" s="89" t="s">
         <v>446</v>
       </c>
-      <c r="E120" s="90"/>
-      <c r="F120" s="96" t="s">
+      <c r="E120" s="92"/>
+      <c r="F120" s="98" t="s">
         <v>353</v>
       </c>
       <c r="G120" s="19"/>
-      <c r="H120" s="97"/>
-      <c r="I120" t="s">
-        <v>442</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="H120" s="99"/>
+      <c r="I120" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J120" s="107" t="s">
         <v>447</v>
       </c>
-      <c r="K120" s="77" t="s">
+      <c r="K120" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L120" s="40"/>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:12">
-      <c r="A121" s="87"/>
+      <c r="A121" s="90"/>
       <c r="B121" s="11"/>
-      <c r="C121" s="88" t="s">
+      <c r="C121" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="D121" s="86" t="s">
+      <c r="D121" s="89" t="s">
         <v>448</v>
       </c>
-      <c r="E121" s="90"/>
-      <c r="F121" s="96" t="s">
+      <c r="E121" s="92"/>
+      <c r="F121" s="98" t="s">
         <v>360</v>
       </c>
       <c r="G121" s="19"/>
-      <c r="H121" s="97"/>
-      <c r="I121" t="s">
-        <v>442</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="H121" s="99"/>
+      <c r="I121" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J121" s="107" t="s">
         <v>449</v>
       </c>
-      <c r="K121" s="77" t="s">
+      <c r="K121" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L121" s="40"/>
     </row>
     <row r="122" ht="16" customHeight="1" spans="1:12">
-      <c r="A122" s="87"/>
+      <c r="A122" s="90"/>
       <c r="B122" s="11"/>
-      <c r="C122" s="88"/>
-      <c r="D122" s="86" t="s">
+      <c r="C122" s="76"/>
+      <c r="D122" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="E122" s="90"/>
-      <c r="F122" s="96" t="s">
+      <c r="E122" s="92"/>
+      <c r="F122" s="98" t="s">
         <v>366</v>
       </c>
       <c r="G122" s="19"/>
-      <c r="H122" s="97"/>
-      <c r="I122" t="s">
-        <v>442</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="H122" s="99"/>
+      <c r="I122" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J122" s="107" t="s">
         <v>451</v>
       </c>
-      <c r="K122" s="77" t="s">
+      <c r="K122" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L122" s="40"/>
     </row>
     <row r="123" ht="16" customHeight="1" spans="1:12">
-      <c r="A123" s="87"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="11"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="86" t="s">
+      <c r="C123" s="76"/>
+      <c r="D123" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="E123" s="90"/>
-      <c r="F123" s="96" t="s">
+      <c r="E123" s="92"/>
+      <c r="F123" s="98" t="s">
         <v>372</v>
       </c>
       <c r="G123" s="19"/>
-      <c r="H123" s="97"/>
-      <c r="I123" t="s">
-        <v>442</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="H123" s="99"/>
+      <c r="I123" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J123" s="107" t="s">
         <v>453</v>
       </c>
-      <c r="K123" s="77" t="s">
+      <c r="K123" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L123" s="40"/>
     </row>
-    <row r="124" ht="18.3" spans="1:12">
-      <c r="A124" s="87"/>
+    <row r="124" spans="1:12">
+      <c r="A124" s="90"/>
       <c r="B124" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C124" s="89" t="s">
+      <c r="C124" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="D124" s="86" t="s">
+      <c r="D124" s="89" t="s">
         <v>455</v>
       </c>
-      <c r="E124" s="90"/>
-      <c r="F124" s="94" t="s">
+      <c r="E124" s="92"/>
+      <c r="F124" s="96" t="s">
         <v>332</v>
       </c>
       <c r="G124" s="19"/>
-      <c r="H124" s="97"/>
-      <c r="I124" t="s">
-        <v>442</v>
-      </c>
-      <c r="J124" t="s">
+      <c r="H124" s="99"/>
+      <c r="I124" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J124" s="107" t="s">
         <v>456</v>
       </c>
-      <c r="K124" s="77" t="s">
+      <c r="K124" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L124" s="40"/>
     </row>
-    <row r="125" ht="18.3" spans="1:12">
-      <c r="A125" s="87"/>
+    <row r="125" spans="1:12">
+      <c r="A125" s="90"/>
       <c r="B125" s="11"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="86" t="s">
+      <c r="C125" s="76"/>
+      <c r="D125" s="89" t="s">
         <v>457</v>
       </c>
-      <c r="E125" s="90"/>
-      <c r="F125" s="96" t="s">
+      <c r="E125" s="92"/>
+      <c r="F125" s="98" t="s">
         <v>338</v>
       </c>
       <c r="G125" s="19"/>
-      <c r="H125" s="97"/>
-      <c r="I125" t="s">
-        <v>442</v>
-      </c>
-      <c r="J125" t="s">
+      <c r="H125" s="99"/>
+      <c r="I125" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J125" s="107" t="s">
         <v>458</v>
       </c>
-      <c r="K125" s="77" t="s">
+      <c r="K125" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L125" s="40"/>
     </row>
-    <row r="126" ht="18.3" spans="1:12">
-      <c r="A126" s="87"/>
+    <row r="126" spans="1:12">
+      <c r="A126" s="90"/>
       <c r="B126" s="11"/>
-      <c r="C126" s="89" t="s">
+      <c r="C126" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="D126" s="90" t="s">
+      <c r="D126" s="92" t="s">
         <v>459</v>
       </c>
-      <c r="E126" s="90"/>
-      <c r="F126" s="96" t="s">
+      <c r="E126" s="92"/>
+      <c r="F126" s="98" t="s">
         <v>347</v>
       </c>
       <c r="G126" s="19"/>
-      <c r="H126" s="97"/>
-      <c r="I126" t="s">
-        <v>442</v>
-      </c>
-      <c r="J126" t="s">
+      <c r="H126" s="99"/>
+      <c r="I126" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J126" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="K126" s="77" t="s">
+      <c r="K126" s="80" t="s">
         <v>152</v>
       </c>
       <c r="L126" s="40"/>
     </row>
-    <row r="127" ht="18.3" spans="1:12">
-      <c r="A127" s="87"/>
+    <row r="127" spans="1:12">
+      <c r="A127" s="90"/>
       <c r="B127" s="11"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="90" t="s">
+      <c r="C127" s="76"/>
+      <c r="D127" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="E127" s="90"/>
-      <c r="F127" s="96" t="s">
+      <c r="E127" s="92"/>
+      <c r="F127" s="98" t="s">
         <v>353</v>
       </c>
       <c r="G127" s="19"/>
-      <c r="H127" s="97"/>
-      <c r="I127" t="s">
-        <v>442</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="H127" s="99"/>
+      <c r="I127" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J127" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="K127" s="77" t="s">
+      <c r="K127" s="80" t="s">
         <v>170</v>
       </c>
       <c r="L127" s="40"/>
     </row>
     <row r="128" ht="18.3" spans="1:12">
-      <c r="A128" s="87"/>
+      <c r="A128" s="90"/>
       <c r="B128" s="11"/>
-      <c r="C128" s="89" t="s">
+      <c r="C128" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D128" s="90" t="s">
+      <c r="D128" s="92" t="s">
         <v>463</v>
       </c>
-      <c r="E128" s="90"/>
-      <c r="F128" s="96" t="s">
+      <c r="E128" s="92"/>
+      <c r="F128" s="98" t="s">
         <v>360</v>
       </c>
       <c r="G128" s="19"/>
-      <c r="H128" s="97"/>
-      <c r="I128" t="s">
-        <v>442</v>
-      </c>
-      <c r="J128" t="s">
+      <c r="H128" s="99"/>
+      <c r="I128" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J128" s="107" t="s">
         <v>464</v>
       </c>
-      <c r="K128" s="77" t="s">
+      <c r="K128" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L128" s="40"/>
     </row>
     <row r="129" ht="18.3" spans="1:12">
-      <c r="A129" s="87"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="11"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="90" t="s">
+      <c r="C129" s="91"/>
+      <c r="D129" s="92" t="s">
         <v>465</v>
       </c>
-      <c r="E129" s="90"/>
-      <c r="F129" s="96" t="s">
+      <c r="E129" s="92"/>
+      <c r="F129" s="98" t="s">
         <v>366</v>
       </c>
       <c r="G129" s="19"/>
-      <c r="H129" s="97"/>
-      <c r="I129" t="s">
-        <v>442</v>
-      </c>
-      <c r="J129" t="s">
+      <c r="H129" s="99"/>
+      <c r="I129" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J129" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="K129" s="77" t="s">
+      <c r="K129" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L129" s="40"/>
     </row>
     <row r="130" ht="18.3" spans="1:12">
-      <c r="A130" s="87"/>
+      <c r="A130" s="90"/>
       <c r="B130" s="11"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="90" t="s">
+      <c r="C130" s="91"/>
+      <c r="D130" s="92" t="s">
         <v>467</v>
       </c>
-      <c r="E130" s="90"/>
-      <c r="F130" s="96" t="s">
+      <c r="E130" s="92"/>
+      <c r="F130" s="98" t="s">
         <v>372</v>
       </c>
       <c r="G130" s="19"/>
-      <c r="H130" s="97"/>
-      <c r="I130" t="s">
-        <v>442</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="H130" s="99"/>
+      <c r="I130" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J130" s="107" t="s">
         <v>468</v>
       </c>
-      <c r="K130" s="77" t="s">
+      <c r="K130" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L130" s="40"/>
     </row>
     <row r="131" ht="18.3" spans="1:12">
-      <c r="A131" s="87"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="11"/>
-      <c r="C131" s="89" t="s">
-        <v>413</v>
-      </c>
-      <c r="D131" s="90" t="s">
+      <c r="C131" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" s="92" t="s">
         <v>469</v>
       </c>
-      <c r="E131" s="90"/>
-      <c r="F131" s="94" t="s">
+      <c r="E131" s="92"/>
+      <c r="F131" s="96" t="s">
         <v>332</v>
       </c>
       <c r="G131" s="19"/>
-      <c r="H131" s="97"/>
-      <c r="I131" t="s">
-        <v>442</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="H131" s="99"/>
+      <c r="I131" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J131" s="107" t="s">
         <v>470</v>
       </c>
-      <c r="K131" s="77" t="s">
+      <c r="K131" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L131" s="40"/>
     </row>
     <row r="132" ht="18.3" spans="1:12">
-      <c r="A132" s="87"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="11"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="90" t="s">
+      <c r="C132" s="76"/>
+      <c r="D132" s="92" t="s">
         <v>471</v>
       </c>
-      <c r="E132" s="90"/>
-      <c r="F132" s="96" t="s">
+      <c r="E132" s="92"/>
+      <c r="F132" s="98" t="s">
         <v>338</v>
       </c>
       <c r="G132" s="19"/>
-      <c r="H132" s="97"/>
-      <c r="I132" t="s">
-        <v>442</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="H132" s="99"/>
+      <c r="I132" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J132" s="107" t="s">
         <v>472</v>
       </c>
-      <c r="K132" s="77" t="s">
+      <c r="K132" s="80" t="s">
         <v>216</v>
       </c>
       <c r="L132" s="40"/>
     </row>
     <row r="133" ht="18.3" spans="1:12">
-      <c r="A133" s="87"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="11"/>
-      <c r="C133" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="D133" s="90" t="s">
+      <c r="C133" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="E133" s="90"/>
-      <c r="F133" s="96" t="s">
+      <c r="E133" s="92"/>
+      <c r="F133" s="98" t="s">
         <v>347</v>
       </c>
       <c r="G133" s="19"/>
-      <c r="H133" s="97"/>
-      <c r="I133" t="s">
-        <v>442</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="H133" s="99"/>
+      <c r="I133" s="107" t="s">
+        <v>402</v>
+      </c>
+      <c r="J133" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="K133" s="77" t="s">
+      <c r="K133" s="80" t="s">
         <v>229</v>
       </c>
       <c r="L133" s="40"/>
     </row>
     <row r="134" ht="18.3" spans="1:12">
-      <c r="A134" s="87"/>
+      <c r="A134" s="90"/>
       <c r="B134" s="11"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="90" t="s">
+      <c r="C134" s="76"/>
+      <c r="D134" s="92" t="s">
         <v>475</v>
       </c>
-      <c r="E134" s="90"/>
-      <c r="F134" s="96" t="s">
+      <c r="E134" s="92"/>
+      <c r="F134" s="98" t="s">
         <v>353</v>
       </c>
       <c r="G134" s="19"/>
-      <c r="H134" s="97"/>
-      <c r="I134" t="s">
-        <v>422</v>
-      </c>
-      <c r="J134" t="s">
+      <c r="H134" s="99"/>
+      <c r="I134" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="J134" s="107" t="s">
         <v>476</v>
       </c>
-      <c r="K134" s="77" t="s">
+      <c r="K134" s="80" t="s">
         <v>200</v>
       </c>
       <c r="L134" s="40"/>
     </row>
     <row r="135" ht="18.3" spans="1:12">
-      <c r="A135" s="87"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="11"/>
-      <c r="C135" s="89" t="s">
-        <v>424</v>
-      </c>
-      <c r="D135" s="90" t="s">
+      <c r="C135" s="91" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="E135" s="90"/>
-      <c r="F135" s="96" t="s">
+      <c r="E135" s="92"/>
+      <c r="F135" s="98" t="s">
         <v>360</v>
       </c>
       <c r="G135" s="19"/>
-      <c r="H135" s="97"/>
-      <c r="I135" t="s">
-        <v>422</v>
-      </c>
-      <c r="J135" t="s">
+      <c r="H135" s="99"/>
+      <c r="I135" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="J135" s="107" t="s">
         <v>478</v>
       </c>
-      <c r="K135" s="77" t="s">
+      <c r="K135" s="80" t="s">
         <v>260</v>
       </c>
       <c r="L135" s="40"/>
     </row>
     <row r="136" ht="18.3" spans="1:12">
-      <c r="A136" s="87"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="11"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="90" t="s">
+      <c r="C136" s="91"/>
+      <c r="D136" s="92" t="s">
         <v>479</v>
       </c>
-      <c r="E136" s="90"/>
-      <c r="F136" s="96" t="s">
+      <c r="E136" s="92"/>
+      <c r="F136" s="98" t="s">
         <v>366</v>
       </c>
       <c r="G136" s="19"/>
-      <c r="H136" s="98" t="s">
-        <v>428</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="H136" s="100" t="s">
         <v>429</v>
       </c>
-      <c r="J136" t="s">
+      <c r="I136" s="107" t="s">
+        <v>430</v>
+      </c>
+      <c r="J136" s="107" t="s">
         <v>480</v>
       </c>
-      <c r="K136" s="77" t="s">
-        <v>431</v>
+      <c r="K136" s="80" t="s">
+        <v>432</v>
       </c>
       <c r="L136" s="40"/>
     </row>
     <row r="137" ht="18.3" spans="1:12">
-      <c r="A137" s="87"/>
-      <c r="B137" s="81"/>
-      <c r="C137" s="121"/>
+      <c r="A137" s="90"/>
+      <c r="B137" s="84"/>
+      <c r="C137" s="125"/>
       <c r="D137" s="30" t="s">
         <v>481</v>
       </c>
       <c r="E137" s="30"/>
-      <c r="F137" s="122" t="s">
+      <c r="F137" s="126" t="s">
         <v>372</v>
       </c>
       <c r="G137" s="19"/>
-      <c r="H137" s="123" t="s">
-        <v>433</v>
-      </c>
-      <c r="I137" s="124" t="s">
+      <c r="H137" s="127" t="s">
         <v>434</v>
       </c>
-      <c r="J137" s="124" t="s">
+      <c r="I137" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="J137" s="128" t="s">
         <v>482</v>
       </c>
-      <c r="K137" s="125" t="s">
-        <v>436</v>
+      <c r="K137" s="129" t="s">
+        <v>437</v>
       </c>
       <c r="L137" s="40"/>
     </row>

--- a/【存储稳定性测试与数据一致性校验】测试用例.xlsx
+++ b/【存储稳定性测试与数据一致性校验】测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13160" tabRatio="460"/>
+    <workbookView windowWidth="27660" windowHeight="13140" tabRatio="460"/>
   </bookViews>
   <sheets>
     <sheet name="LBA工具测试用例" sheetId="6" r:id="rId1"/>
@@ -2864,14 +2864,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">chaosArsenal故障注入工具: </t>
     </r>
     <r>
@@ -2894,6 +2886,27 @@
         <scheme val="minor"/>
       </rPr>
       <t>https://gitee.com/openeuler/chaosArsenal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3232F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF3232F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://gitee.com/sanjingzi</t>
     </r>
   </si>
   <si>
@@ -7840,20 +7853,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7867,9 +7867,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3232F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9824,13 +9837,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -10014,7 +10020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="25262840" y="24585930"/>
-          <a:ext cx="8730615" cy="6417310"/>
+          <a:ext cx="8730615" cy="6531610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10278,8 +10284,8 @@
   <sheetPr/>
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G110" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -13392,7 +13398,7 @@
       </c>
       <c r="L118" s="40"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" ht="18.3" spans="1:12">
       <c r="A119" s="90"/>
       <c r="B119" s="11"/>
       <c r="C119" s="76" t="s">
@@ -13418,7 +13424,7 @@
       </c>
       <c r="L119" s="40"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" ht="18.3" spans="1:12">
       <c r="A120" s="90"/>
       <c r="B120" s="11"/>
       <c r="C120" s="76"/>
@@ -13516,7 +13522,7 @@
       </c>
       <c r="L123" s="40"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" ht="18.3" spans="1:12">
       <c r="A124" s="90"/>
       <c r="B124" s="11" t="s">
         <v>454</v>
@@ -13544,7 +13550,7 @@
       </c>
       <c r="L124" s="40"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" ht="18.3" spans="1:12">
       <c r="A125" s="90"/>
       <c r="B125" s="11"/>
       <c r="C125" s="76"/>
@@ -13568,7 +13574,7 @@
       </c>
       <c r="L125" s="40"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" ht="18.3" spans="1:12">
       <c r="A126" s="90"/>
       <c r="B126" s="11"/>
       <c r="C126" s="91" t="s">
@@ -13594,7 +13600,7 @@
       </c>
       <c r="L126" s="40"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" ht="18.3" spans="1:12">
       <c r="A127" s="90"/>
       <c r="B127" s="11"/>
       <c r="C127" s="76"/>
